--- a/Eindverslag/Gantt Chart.xlsx
+++ b/Eindverslag/Gantt Chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Plan</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>Eindverslag</t>
+  </si>
+  <si>
+    <t>&gt;hoofd- en aboutpagina</t>
+  </si>
+  <si>
+    <t>&gt;Trips pagina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt; </t>
   </si>
 </sst>
 </file>
@@ -552,14 +561,14 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -761,7 +770,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Spinner 5" hidden="1">
+            <xdr:cNvPr id="1029" name="Spinner 5" descr="Period Highlight Spin Control" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
@@ -770,7 +779,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -778,6 +787,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -1018,16 +1033,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:AG28"/>
+  <dimension ref="B2:AG29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.875" style="26" customWidth="1"/>
     <col min="3" max="3" width="6.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.375" style="1" bestFit="1" customWidth="1"/>
@@ -1041,22 +1056,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="2:33" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="3" t="s">
@@ -1082,12 +1097,12 @@
       </c>
     </row>
     <row r="4" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="13" t="s">
         <v>24</v>
@@ -1293,27 +1308,49 @@
     </row>
     <row r="12" spans="2:33" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="C12" s="18">
+        <v>5</v>
+      </c>
+      <c r="D12" s="18">
+        <v>16</v>
+      </c>
+      <c r="E12" s="18">
+        <v>5</v>
+      </c>
+      <c r="F12" s="18">
+        <v>14</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1</v>
+      </c>
       <c r="AF12" s="22"/>
     </row>
     <row r="13" spans="2:33" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+        <v>34</v>
+      </c>
+      <c r="C13" s="18">
+        <v>5</v>
+      </c>
+      <c r="D13" s="18">
+        <v>16</v>
+      </c>
+      <c r="E13" s="18">
+        <v>5</v>
+      </c>
+      <c r="F13" s="18">
+        <v>16</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
       <c r="AF13" s="22"/>
     </row>
     <row r="14" spans="2:33" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -1323,40 +1360,29 @@
     </row>
     <row r="15" spans="2:33" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="18">
-        <v>5</v>
-      </c>
-      <c r="D15" s="18">
-        <v>16</v>
-      </c>
-      <c r="E15" s="18">
-        <v>5</v>
-      </c>
-      <c r="F15" s="18">
-        <v>16</v>
-      </c>
-      <c r="G15" s="19">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
       <c r="AF15" s="22"/>
     </row>
     <row r="16" spans="2:33" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C16" s="18">
         <v>5</v>
       </c>
       <c r="D16" s="18">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E16" s="18">
         <v>5</v>
       </c>
       <c r="F16" s="18">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G16" s="19">
         <v>1</v>
@@ -1365,19 +1391,19 @@
     </row>
     <row r="17" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C17" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18">
+        <v>5</v>
+      </c>
+      <c r="F17" s="18">
         <v>2</v>
-      </c>
-      <c r="E17" s="18">
-        <v>7</v>
-      </c>
-      <c r="F17" s="18">
-        <v>3</v>
       </c>
       <c r="G17" s="19">
         <v>1</v>
@@ -1386,16 +1412,16 @@
     </row>
     <row r="18" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C18" s="18">
+        <v>6</v>
+      </c>
+      <c r="D18" s="18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="18">
         <v>7</v>
-      </c>
-      <c r="D18" s="18">
-        <v>4</v>
-      </c>
-      <c r="E18" s="18">
-        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>3</v>
@@ -1407,19 +1433,19 @@
     </row>
     <row r="19" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C19" s="18">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D19" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" s="18">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="19">
         <v>1</v>
@@ -1428,19 +1454,19 @@
     </row>
     <row r="20" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="18">
+        <v>12</v>
+      </c>
+      <c r="D20" s="18">
+        <v>2</v>
+      </c>
+      <c r="E20" s="18">
         <v>14</v>
       </c>
-      <c r="D20" s="18">
-        <v>3</v>
-      </c>
-      <c r="E20" s="18">
-        <v>16</v>
-      </c>
       <c r="F20" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="19">
         <v>1</v>
@@ -1449,19 +1475,19 @@
     </row>
     <row r="21" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C21" s="18">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="18">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21" s="19">
         <v>1</v>
@@ -1470,38 +1496,37 @@
     </row>
     <row r="22" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C22" s="18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="18">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" s="19">
         <v>1</v>
       </c>
-      <c r="P22" s="12"/>
       <c r="AF22" s="22"/>
     </row>
     <row r="23" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C23" s="18">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D23" s="18">
         <v>3</v>
       </c>
       <c r="E23" s="18">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F23" s="18">
         <v>3</v>
@@ -1509,70 +1534,70 @@
       <c r="G23" s="19">
         <v>1</v>
       </c>
-      <c r="P23" s="29"/>
-      <c r="AC23" s="12"/>
+      <c r="P23" s="12"/>
       <c r="AF23" s="22"/>
     </row>
     <row r="24" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C24" s="18">
-        <v>16</v>
-      </c>
-      <c r="D24" s="23">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="D24" s="18">
+        <v>3</v>
       </c>
       <c r="E24" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" s="19">
         <v>1</v>
       </c>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="30"/>
+      <c r="P24" s="28"/>
+      <c r="AC24" s="12"/>
       <c r="AF24" s="22"/>
     </row>
     <row r="25" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="18">
         <v>16</v>
       </c>
-      <c r="C25" s="18">
-        <v>21</v>
-      </c>
-      <c r="D25" s="18">
-        <v>3</v>
+      <c r="D25" s="23">
+        <v>4</v>
       </c>
       <c r="E25" s="18">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="19">
         <v>1</v>
       </c>
-      <c r="AE25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="29"/>
       <c r="AF25" s="22"/>
     </row>
     <row r="26" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="18">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" s="18">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="19">
         <v>1</v>
@@ -1582,53 +1607,75 @@
     </row>
     <row r="27" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C27" s="18">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D27" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E27" s="18">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27" s="19">
         <v>1</v>
       </c>
+      <c r="AE27" s="12"/>
       <c r="AF27" s="22"/>
     </row>
     <row r="28" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="18">
+        <v>17</v>
+      </c>
+      <c r="D28" s="18">
+        <v>5</v>
+      </c>
+      <c r="E28" s="18">
+        <v>20</v>
+      </c>
+      <c r="F28" s="18">
+        <v>3</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="22"/>
+    </row>
+    <row r="29" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C29" s="24">
         <v>22</v>
       </c>
-      <c r="D28" s="18">
-        <v>1</v>
-      </c>
-      <c r="E28" s="18">
+      <c r="D29" s="18">
+        <v>1</v>
+      </c>
+      <c r="E29" s="18">
         <v>22</v>
       </c>
-      <c r="F28" s="18">
-        <v>1</v>
-      </c>
-      <c r="G28" s="19">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="25"/>
+      <c r="F29" s="18">
+        <v>1</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:AF21 I22:O23 Q22:AF22 I24:Y24 AB24:AF24 I27:AF27 I28:AC28 AF28 I25:AD26 AF25:AF26 Q23:AB23 AD23:AF23">
+  <conditionalFormatting sqref="I9:AF22 I23:O24 Q23:AF23 I25:Y25 AB25:AF25 I28:AF28 I29:AC29 AF29 I26:AD27 AF26:AF27 Q24:AB24 AD24:AF24">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -1654,7 +1701,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:AF29">
+  <conditionalFormatting sqref="B30:AF30">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>

--- a/Eindverslag/Gantt Chart.xlsx
+++ b/Eindverslag/Gantt Chart.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Plan</t>
   </si>
@@ -161,9 +161,6 @@
     <t xml:space="preserve"> Period:</t>
   </si>
   <si>
-    <t>&gt;</t>
-  </si>
-  <si>
     <t>&gt; Barometer</t>
   </si>
   <si>
@@ -179,7 +176,22 @@
     <t>&gt;Trips pagina</t>
   </si>
   <si>
-    <t xml:space="preserve">  &gt; </t>
+    <t xml:space="preserve">  &gt; grafieken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt; thumbnails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt; time-lapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt; kaart: route tonen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt; filters en sorteren</t>
   </si>
 </sst>
 </file>
@@ -1033,16 +1045,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:AG29"/>
+  <dimension ref="A2:AG32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="26" customWidth="1"/>
     <col min="3" max="3" width="6.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.375" style="1" bestFit="1" customWidth="1"/>
@@ -1055,7 +1067,7 @@
     <col min="29" max="16384" width="2.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1065,7 +1077,7 @@
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
     </row>
-    <row r="3" spans="2:33" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -1096,7 +1108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -1115,7 +1127,7 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
     </row>
-    <row r="6" spans="2:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" s="14"/>
       <c r="C6" s="14" t="s">
         <v>2</v>
@@ -1136,7 +1148,7 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
@@ -1161,7 +1173,7 @@
       </c>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -1243,7 +1255,7 @@
       </c>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="2:33" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
         <v>10</v>
       </c>
@@ -1264,7 +1276,7 @@
       </c>
       <c r="AF9" s="20"/>
     </row>
-    <row r="10" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
         <v>11</v>
       </c>
@@ -1285,7 +1297,7 @@
       </c>
       <c r="AF10" s="22"/>
     </row>
-    <row r="11" spans="2:33" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
         <v>12</v>
       </c>
@@ -1293,22 +1305,22 @@
         <v>5</v>
       </c>
       <c r="D11" s="18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E11" s="18">
         <v>4</v>
       </c>
       <c r="F11" s="18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G11" s="19">
         <v>1</v>
       </c>
       <c r="AF11" s="22"/>
     </row>
-    <row r="12" spans="2:33" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="18">
         <v>5</v>
@@ -1327,62 +1339,87 @@
       </c>
       <c r="AF12" s="22"/>
     </row>
-    <row r="13" spans="2:33" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="18">
         <v>5</v>
       </c>
       <c r="D13" s="18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E13" s="18">
         <v>5</v>
       </c>
       <c r="F13" s="18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G13" s="19">
         <v>1</v>
       </c>
       <c r="AF13" s="22"/>
     </row>
-    <row r="14" spans="2:33" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="18">
+        <v>7</v>
+      </c>
+      <c r="D14" s="18">
+        <v>8</v>
+      </c>
+      <c r="E14" s="18">
+        <v>7</v>
+      </c>
+      <c r="F14" s="18">
+        <v>11</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="22"/>
+    </row>
+    <row r="15" spans="1:33" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="18">
+        <v>5</v>
+      </c>
+      <c r="D15" s="18">
+        <v>10</v>
+      </c>
+      <c r="E15" s="18">
+        <v>6</v>
+      </c>
+      <c r="F15" s="18">
+        <v>14</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="22"/>
+    </row>
+    <row r="16" spans="1:33" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="AF14" s="22"/>
-    </row>
-    <row r="15" spans="2:33" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="AF15" s="22"/>
-    </row>
-    <row r="16" spans="2:33" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C16" s="18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D16" s="18">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E16" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F16" s="18">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G16" s="19">
         <v>1</v>
@@ -1391,19 +1428,19 @@
     </row>
     <row r="17" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C17" s="18">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D17" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="18">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="19">
         <v>1</v>
@@ -1412,16 +1449,16 @@
     </row>
     <row r="18" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C18" s="18">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D18" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="18">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F18" s="18">
         <v>3</v>
@@ -1433,19 +1470,19 @@
     </row>
     <row r="19" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C19" s="18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19" s="18">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E19" s="18">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F19" s="18">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G19" s="19">
         <v>1</v>
@@ -1454,16 +1491,16 @@
     </row>
     <row r="20" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C20" s="18">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D20" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="18">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F20" s="18">
         <v>2</v>
@@ -1475,19 +1512,19 @@
     </row>
     <row r="21" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C21" s="18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D21" s="18">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>7</v>
+      </c>
+      <c r="F21" s="18">
         <v>3</v>
-      </c>
-      <c r="E21" s="18">
-        <v>16</v>
-      </c>
-      <c r="F21" s="18">
-        <v>4</v>
       </c>
       <c r="G21" s="19">
         <v>1</v>
@@ -1496,19 +1533,19 @@
     </row>
     <row r="22" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" s="18">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" s="19">
         <v>1</v>
@@ -1517,61 +1554,58 @@
     </row>
     <row r="23" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="18">
+        <v>12</v>
+      </c>
+      <c r="D23" s="18">
+        <v>2</v>
+      </c>
+      <c r="E23" s="18">
         <v>14</v>
       </c>
-      <c r="C23" s="18">
-        <v>6</v>
-      </c>
-      <c r="D23" s="18">
-        <v>3</v>
-      </c>
-      <c r="E23" s="18">
-        <v>6</v>
-      </c>
       <c r="F23" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="19">
         <v>1</v>
       </c>
-      <c r="P23" s="12"/>
       <c r="AF23" s="22"/>
     </row>
     <row r="24" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="18">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D24" s="18">
         <v>3</v>
       </c>
       <c r="E24" s="18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F24" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24" s="19">
         <v>1</v>
       </c>
-      <c r="P24" s="28"/>
-      <c r="AC24" s="12"/>
       <c r="AF24" s="22"/>
     </row>
     <row r="25" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C25" s="18">
-        <v>16</v>
-      </c>
-      <c r="D25" s="23">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="D25" s="18">
+        <v>2</v>
       </c>
       <c r="E25" s="18">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>1</v>
@@ -1579,103 +1613,169 @@
       <c r="G25" s="19">
         <v>1</v>
       </c>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="29"/>
       <c r="AF25" s="22"/>
     </row>
     <row r="26" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" s="18">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D26" s="18">
         <v>3</v>
       </c>
       <c r="E26" s="18">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F26" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="19">
         <v>1</v>
       </c>
-      <c r="AE26" s="12"/>
+      <c r="P26" s="12"/>
       <c r="AF26" s="22"/>
     </row>
     <row r="27" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C27" s="18">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D27" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" s="18">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="19">
         <v>1</v>
       </c>
-      <c r="AE27" s="12"/>
+      <c r="P27" s="28"/>
+      <c r="AC27" s="12"/>
       <c r="AF27" s="22"/>
     </row>
     <row r="28" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C28" s="18">
+        <v>16</v>
+      </c>
+      <c r="D28" s="23">
+        <v>4</v>
+      </c>
+      <c r="E28" s="18">
         <v>17</v>
       </c>
-      <c r="D28" s="18">
-        <v>5</v>
-      </c>
-      <c r="E28" s="18">
-        <v>20</v>
-      </c>
       <c r="F28" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28" s="19">
         <v>1</v>
       </c>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="29"/>
       <c r="AF28" s="22"/>
     </row>
     <row r="29" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="24">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="C29" s="18">
+        <v>21</v>
       </c>
       <c r="D29" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" s="18">
         <v>22</v>
       </c>
       <c r="F29" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="19">
         <v>1</v>
       </c>
-      <c r="AD29" s="28"/>
       <c r="AE29" s="12"/>
-      <c r="AF29" s="25"/>
+      <c r="AF29" s="22"/>
+    </row>
+    <row r="30" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="18">
+        <v>23</v>
+      </c>
+      <c r="D30" s="18">
+        <v>1</v>
+      </c>
+      <c r="E30" s="18">
+        <v>23</v>
+      </c>
+      <c r="F30" s="18">
+        <v>1</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="22"/>
+    </row>
+    <row r="31" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="18">
+        <v>17</v>
+      </c>
+      <c r="D31" s="18">
+        <v>5</v>
+      </c>
+      <c r="E31" s="18">
+        <v>20</v>
+      </c>
+      <c r="F31" s="18">
+        <v>3</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="22"/>
+    </row>
+    <row r="32" spans="2:32" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="24">
+        <v>22</v>
+      </c>
+      <c r="D32" s="18">
+        <v>1</v>
+      </c>
+      <c r="E32" s="18">
+        <v>22</v>
+      </c>
+      <c r="F32" s="18">
+        <v>1</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:AF22 I23:O24 Q23:AF23 I25:Y25 AB25:AF25 I28:AF28 I29:AC29 AF29 I26:AD27 AF26:AF27 Q24:AB24 AD24:AF24">
+  <conditionalFormatting sqref="I9:AF25 I26:O27 Q26:AF26 I28:Y28 AB28:AF28 I31:AF31 I32:AC32 AF32 I29:AD30 AF29:AF30 Q27:AB27 AD27:AF27">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -1701,7 +1801,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:AF30">
+  <conditionalFormatting sqref="B33:AF33">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
